--- a/AC/mark8/depois.xlsx
+++ b/AC/mark8/depois.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>CHZfz</t>
+          <t>CHZfx</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -497,12 +497,42 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>brl_t</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>chz_t</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>brl_t</t>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>CHZfx2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>brl_f</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>chz_f</t>
         </is>
       </c>
     </row>
@@ -542,25 +572,43 @@
         <v>241.3127413127413</v>
       </c>
       <c r="I2" t="n">
-        <v>2.157</v>
+        <v>2.111</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1023166023166</v>
+        <v>1.882239382239389</v>
       </c>
       <c r="K2" t="n">
-        <v>2.157</v>
+        <v>2.111</v>
       </c>
       <c r="L2" t="n">
-        <v>520.511583011583</v>
+        <v>509.411196911197</v>
       </c>
       <c r="M2" t="n">
-        <v>20.51158301158296</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.5557074848438</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>510.2506610448081</v>
+        <v>500</v>
+      </c>
+      <c r="P2" t="n">
+        <v>241.3127413127413</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>500</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>500</v>
+      </c>
+      <c r="U2" t="n">
+        <v>241.3127413127413</v>
       </c>
     </row>
     <row r="3">
@@ -599,25 +647,43 @@
         <v>20.37489812550937</v>
       </c>
       <c r="I3" t="n">
-        <v>26.31</v>
+        <v>24.8</v>
       </c>
       <c r="J3" t="n">
-        <v>7.212713936430316</v>
+        <v>1.059494702526494</v>
       </c>
       <c r="K3" t="n">
-        <v>26.31</v>
+        <v>24.8</v>
       </c>
       <c r="L3" t="n">
-        <v>536.0635696821515</v>
+        <v>505.2974735126325</v>
       </c>
       <c r="M3" t="n">
-        <v>36.06356968215152</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>19.68919667192907</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>518.0227644384539</v>
+        <v>500</v>
+      </c>
+      <c r="P3" t="n">
+        <v>20.37489812550937</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>499.9999999999999</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>500</v>
+      </c>
+      <c r="U3" t="n">
+        <v>20.37489812550937</v>
       </c>
     </row>
     <row r="4">
@@ -656,25 +722,43 @@
         <v>7.404116688879016</v>
       </c>
       <c r="I4" t="n">
-        <v>72.08</v>
+        <v>75.04000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>6.7377461868799</v>
+        <v>11.12098326669629</v>
       </c>
       <c r="K4" t="n">
-        <v>72.08</v>
+        <v>75.04000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>533.6887309343995</v>
+        <v>555.6049163334815</v>
       </c>
       <c r="M4" t="n">
-        <v>33.68873093439947</v>
+        <v>55.60491633348147</v>
       </c>
       <c r="N4" t="n">
-        <v>7.170309920522588</v>
+        <v>27.81636634991569</v>
       </c>
       <c r="O4" t="n">
-        <v>516.8359390712682</v>
+        <v>527.7885499835658</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7.774803873712647</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>525.032505591815</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-2.75604439175072</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-1.378711551651185</v>
+      </c>
+      <c r="T4" t="n">
+        <v>526.4098384319145</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7.754408007577603</v>
       </c>
     </row>
     <row r="5">
@@ -713,25 +797,43 @@
         <v>5.512679162072767</v>
       </c>
       <c r="I5" t="n">
-        <v>97.40000000000001</v>
+        <v>101.1</v>
       </c>
       <c r="J5" t="n">
-        <v>7.386990077177511</v>
+        <v>11.46637265711135</v>
       </c>
       <c r="K5" t="n">
-        <v>97.40000000000001</v>
+        <v>101.1</v>
       </c>
       <c r="L5" t="n">
-        <v>536.9349503858875</v>
+        <v>557.3318632855568</v>
       </c>
       <c r="M5" t="n">
-        <v>36.93495038588753</v>
+        <v>57.33186328555678</v>
       </c>
       <c r="N5" t="n">
-        <v>5.322979844313849</v>
+        <v>28.68027177866772</v>
       </c>
       <c r="O5" t="n">
-        <v>518.4582368361689</v>
+        <v>528.6515915068891</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.796361375511617</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>525.7299767589036</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-2.921614747985473</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-1.461538143064268</v>
+      </c>
+      <c r="T5" t="n">
+        <v>527.1900533638249</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5.780263507761658</v>
       </c>
     </row>
     <row r="6">
@@ -770,25 +872,43 @@
         <v>10.37344398340249</v>
       </c>
       <c r="I6" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-1.452282157676354</v>
       </c>
       <c r="K6" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="L6" t="n">
+        <v>492.7385892116182</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>500</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10.37344398340249</v>
+      </c>
+      <c r="Q6" t="n">
         <v>499.9999999999999</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>500</v>
+      </c>
+      <c r="U6" t="n">
         <v>10.37344398340249</v>
-      </c>
-      <c r="O6" t="n">
-        <v>500</v>
       </c>
     </row>
     <row r="7">
@@ -827,25 +947,43 @@
         <v>0.328515111695138</v>
       </c>
       <c r="I7" t="n">
-        <v>1586</v>
+        <v>1728</v>
       </c>
       <c r="J7" t="n">
-        <v>4.204993429697766</v>
+        <v>13.53482260183969</v>
       </c>
       <c r="K7" t="n">
-        <v>1586</v>
+        <v>1728</v>
       </c>
       <c r="L7" t="n">
-        <v>521.0249671484888</v>
+        <v>567.6741130091984</v>
       </c>
       <c r="M7" t="n">
-        <v>21.02496714848883</v>
+        <v>67.67411300919844</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3218834960296479</v>
+        <v>33.85398349634739</v>
       </c>
       <c r="O7" t="n">
-        <v>510.5072247030217</v>
+        <v>533.8201295128511</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.3481065373295983</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>529.8181498156486</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-4.001979697202501</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-2.001990844023262</v>
+      </c>
+      <c r="T7" t="n">
+        <v>531.8181386688278</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.3467924842066158</v>
       </c>
     </row>
     <row r="8">
@@ -884,25 +1022,43 @@
         <v>0.004634135038695027</v>
       </c>
       <c r="I8" t="n">
-        <v>109606</v>
+        <v>107091</v>
       </c>
       <c r="J8" t="n">
-        <v>1.585801010241438</v>
+        <v>-0.7451689142221605</v>
       </c>
       <c r="K8" t="n">
-        <v>107895</v>
+        <v>107091</v>
       </c>
       <c r="L8" t="n">
-        <v>500</v>
+        <v>496.2741554288892</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>500</v>
+      </c>
+      <c r="P8" t="n">
         <v>0.004634135038695027</v>
       </c>
-      <c r="O8" t="n">
-        <v>500</v>
+      <c r="Q8" t="n">
+        <v>500</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>500</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.004634135038695027</v>
       </c>
     </row>
     <row r="9">
@@ -941,25 +1097,43 @@
         <v>93.89671361502347</v>
       </c>
       <c r="I9" t="n">
-        <v>5.317</v>
+        <v>5.258</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1502347417840377</v>
+        <v>-1.258215962441318</v>
       </c>
       <c r="K9" t="n">
-        <v>5.325</v>
+        <v>5.258</v>
       </c>
       <c r="L9" t="n">
-        <v>500</v>
+        <v>493.7089201877934</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>500</v>
+      </c>
+      <c r="P9" t="n">
         <v>93.89671361502347</v>
       </c>
-      <c r="O9" t="n">
-        <v>500</v>
+      <c r="Q9" t="n">
+        <v>500</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>500</v>
+      </c>
+      <c r="U9" t="n">
+        <v>93.89671361502347</v>
       </c>
     </row>
     <row r="10">
@@ -998,25 +1172,43 @@
         <v>299.2220227408737</v>
       </c>
       <c r="I10" t="n">
-        <v>1.774</v>
+        <v>1.687</v>
       </c>
       <c r="J10" t="n">
-        <v>6.163973668461997</v>
+        <v>0.9575104727707968</v>
       </c>
       <c r="K10" t="n">
-        <v>1.774</v>
+        <v>1.687</v>
       </c>
       <c r="L10" t="n">
-        <v>530.81986834231</v>
+        <v>504.787552363854</v>
       </c>
       <c r="M10" t="n">
-        <v>30.81986834230997</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>290.5311304113071</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>515.4022253496587</v>
+        <v>500</v>
+      </c>
+      <c r="P10" t="n">
+        <v>299.2220227408737</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>500.0000000000001</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>500</v>
+      </c>
+      <c r="U10" t="n">
+        <v>299.2220227408737</v>
       </c>
     </row>
     <row r="11">
@@ -1055,25 +1247,43 @@
         <v>491.1591355599214</v>
       </c>
       <c r="I11" t="n">
-        <v>1.055</v>
+        <v>1.155</v>
       </c>
       <c r="J11" t="n">
-        <v>3.634577603143411</v>
+        <v>13.45776031434185</v>
       </c>
       <c r="K11" t="n">
-        <v>1.055</v>
+        <v>1.155</v>
       </c>
       <c r="L11" t="n">
-        <v>518.172888015717</v>
+        <v>567.2888015717093</v>
       </c>
       <c r="M11" t="n">
-        <v>18.17288801571704</v>
+        <v>67.28880157170931</v>
       </c>
       <c r="N11" t="n">
-        <v>482.5420838986799</v>
+        <v>33.66123140155543</v>
       </c>
       <c r="O11" t="n">
-        <v>509.0818985131072</v>
+        <v>533.6275701701538</v>
+      </c>
+      <c r="P11" t="n">
+        <v>520.3030588513114</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>529.6685139106351</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-3.959056259518775</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-1.980518388953864</v>
+      </c>
+      <c r="T11" t="n">
+        <v>531.6470517811999</v>
+      </c>
+      <c r="U11" t="n">
+        <v>518.359504950953</v>
       </c>
     </row>
     <row r="12">
@@ -1112,25 +1322,43 @@
         <v>1221.597849987784</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4633</v>
+        <v>0.6159</v>
       </c>
       <c r="J12" t="n">
-        <v>13.19325677986807</v>
+        <v>50.47642316149524</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4633</v>
+        <v>0.6159</v>
       </c>
       <c r="L12" t="n">
-        <v>565.9662838993403</v>
+        <v>752.3821158074762</v>
       </c>
       <c r="M12" t="n">
-        <v>65.96628389934028</v>
+        <v>252.3821158074762</v>
       </c>
       <c r="N12" t="n">
-        <v>1150.370477290708</v>
+        <v>126.2541849962362</v>
       </c>
       <c r="O12" t="n">
-        <v>532.9666421287849</v>
+        <v>626.1279308112399</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1426.589220334003</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>583.9029678827073</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-42.22496292853259</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-21.12304298575917</v>
+      </c>
+      <c r="T12" t="n">
+        <v>605.0048878254808</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1375.03310026859</v>
       </c>
     </row>
     <row r="13">
@@ -1169,25 +1397,43 @@
         <v>14.83239394838327</v>
       </c>
       <c r="I13" t="n">
-        <v>34.65</v>
+        <v>34.78</v>
       </c>
       <c r="J13" t="n">
-        <v>2.788490062296048</v>
+        <v>3.17413230495402</v>
       </c>
       <c r="K13" t="n">
-        <v>34.65</v>
+        <v>34.78</v>
       </c>
       <c r="L13" t="n">
-        <v>513.9424503114802</v>
+        <v>515.8706615247701</v>
       </c>
       <c r="M13" t="n">
-        <v>13.94245031148023</v>
+        <v>15.87066152477007</v>
       </c>
       <c r="N13" t="n">
-        <v>14.63110354399666</v>
+        <v>7.939300412591331</v>
       </c>
       <c r="O13" t="n">
-        <v>506.9677377994841</v>
+        <v>507.9313611121788</v>
+      </c>
+      <c r="P13" t="n">
+        <v>15.06066595564581</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>507.6950493648204</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.2363117473583998</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.1182149811697848</v>
+      </c>
+      <c r="T13" t="n">
+        <v>507.813146131009</v>
+      </c>
+      <c r="U13" t="n">
+        <v>15.05716264012553</v>
       </c>
     </row>
     <row r="14">
@@ -1226,25 +1472,43 @@
         <v>214.7766323024055</v>
       </c>
       <c r="I14" t="n">
-        <v>2.395</v>
+        <v>2.37</v>
       </c>
       <c r="J14" t="n">
-        <v>2.878006872852241</v>
+        <v>1.804123711340218</v>
       </c>
       <c r="K14" t="n">
-        <v>2.395</v>
+        <v>2.37</v>
       </c>
       <c r="L14" t="n">
-        <v>514.3900343642612</v>
+        <v>509.0206185567011</v>
       </c>
       <c r="M14" t="n">
-        <v>14.39003436426117</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>211.7709469202027</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>507.1914178738854</v>
+        <v>500</v>
+      </c>
+      <c r="P14" t="n">
+        <v>214.7766323024055</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>500</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>500</v>
+      </c>
+      <c r="U14" t="n">
+        <v>214.7766323024055</v>
       </c>
     </row>
     <row r="15">
@@ -1283,25 +1547,43 @@
         <v>0.06216694061565165</v>
       </c>
       <c r="I15" t="n">
-        <v>8277.51</v>
+        <v>8236.07</v>
       </c>
       <c r="J15" t="n">
-        <v>2.917494523092539</v>
+        <v>2.402254919270011</v>
       </c>
       <c r="K15" t="n">
-        <v>8277.51</v>
+        <v>8236.07</v>
       </c>
       <c r="L15" t="n">
-        <v>514.5874726154627</v>
+        <v>512.0112745963501</v>
       </c>
       <c r="M15" t="n">
-        <v>14.58747261546273</v>
+        <v>12.01127459635006</v>
       </c>
       <c r="N15" t="n">
-        <v>0.06128534880842563</v>
+        <v>6.008641618984523</v>
       </c>
       <c r="O15" t="n">
-        <v>507.2900876152312</v>
+        <v>506.0026329773655</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.06289649264944744</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>505.8676848705348</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>506.0026329773655</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.06289649264944744</v>
       </c>
     </row>
     <row r="16">
@@ -1340,25 +1622,43 @@
         <v>250.7522567703109</v>
       </c>
       <c r="I16" t="n">
-        <v>1.97</v>
+        <v>1.949</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.203610832497494</v>
+        <v>-2.256770310932795</v>
       </c>
       <c r="K16" t="n">
-        <v>1.994</v>
+        <v>1.949</v>
       </c>
       <c r="L16" t="n">
-        <v>500</v>
+        <v>488.716148445336</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-11.28385155466395</v>
       </c>
       <c r="N16" t="n">
-        <v>250.7522567703109</v>
+        <v>-5.644748151407681</v>
       </c>
       <c r="O16" t="n">
-        <v>500</v>
+        <v>494.3552518485923</v>
+      </c>
+      <c r="P16" t="n">
+        <v>247.8589251113801</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>494.2306966720919</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>494.3552518485923</v>
+      </c>
+      <c r="U16" t="n">
+        <v>247.8589251113801</v>
       </c>
     </row>
     <row r="17">
@@ -1397,25 +1697,43 @@
         <v>433.6513443191674</v>
       </c>
       <c r="I17" t="n">
-        <v>1.211</v>
+        <v>1.26</v>
       </c>
       <c r="J17" t="n">
-        <v>5.030355594102346</v>
+        <v>9.280138768430181</v>
       </c>
       <c r="K17" t="n">
-        <v>1.211</v>
+        <v>1.26</v>
       </c>
       <c r="L17" t="n">
-        <v>525.1517779705117</v>
+        <v>546.4006938421509</v>
       </c>
       <c r="M17" t="n">
-        <v>25.15177797051172</v>
+        <v>46.40069384215087</v>
       </c>
       <c r="N17" t="n">
-        <v>423.2614350910142</v>
+        <v>23.2119528975242</v>
       </c>
       <c r="O17" t="n">
-        <v>512.5695978952182</v>
+        <v>523.1887409446267</v>
+      </c>
+      <c r="P17" t="n">
+        <v>452.0735291584723</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>521.2407791197186</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-1.947961824908134</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.9744681465273306</v>
+      </c>
+      <c r="T17" t="n">
+        <v>522.2142727980994</v>
+      </c>
+      <c r="U17" t="n">
+        <v>451.2292154738402</v>
       </c>
     </row>
     <row r="18">
@@ -1454,25 +1772,43 @@
         <v>44.48398576512455</v>
       </c>
       <c r="I18" t="n">
-        <v>11.58</v>
+        <v>11.34</v>
       </c>
       <c r="J18" t="n">
-        <v>3.024911032028468</v>
+        <v>0.8896797153024879</v>
       </c>
       <c r="K18" t="n">
-        <v>11.58</v>
+        <v>11.34</v>
       </c>
       <c r="L18" t="n">
-        <v>515.1245551601423</v>
+        <v>504.4483985765124</v>
       </c>
       <c r="M18" t="n">
-        <v>15.12455516014234</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>43.8306126554202</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>507.558494549766</v>
+        <v>500</v>
+      </c>
+      <c r="P18" t="n">
+        <v>44.48398576512455</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>499.9999999999999</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>500</v>
+      </c>
+      <c r="U18" t="n">
+        <v>44.48398576512455</v>
       </c>
     </row>
     <row r="19">
@@ -1511,25 +1847,43 @@
         <v>2747.252747252747</v>
       </c>
       <c r="I19" t="n">
-        <v>0.188</v>
+        <v>0.218</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2967032967033</v>
+        <v>19.78021978021978</v>
       </c>
       <c r="K19" t="n">
-        <v>0.188</v>
+        <v>0.218</v>
       </c>
       <c r="L19" t="n">
-        <v>516.4835164835165</v>
+        <v>598.9010989010989</v>
       </c>
       <c r="M19" t="n">
-        <v>16.4835164835165</v>
+        <v>98.90109890109886</v>
       </c>
       <c r="N19" t="n">
-        <v>2703.391677133867</v>
+        <v>49.47528709409648</v>
       </c>
       <c r="O19" t="n">
-        <v>508.2376353011671</v>
+        <v>549.4258118070023</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2974.203605482548</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>541.3050561978237</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-8.120755609178673</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-4.062409009093883</v>
+      </c>
+      <c r="T19" t="n">
+        <v>545.3634027979084</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2951.904997789774</v>
       </c>
     </row>
     <row r="20">
@@ -1568,25 +1922,43 @@
         <v>188.1821603312006</v>
       </c>
       <c r="I20" t="n">
-        <v>2.739</v>
+        <v>2.763</v>
       </c>
       <c r="J20" t="n">
-        <v>3.086187429431684</v>
+        <v>3.989461799021448</v>
       </c>
       <c r="K20" t="n">
-        <v>2.739</v>
+        <v>2.763</v>
       </c>
       <c r="L20" t="n">
-        <v>515.4309371471585</v>
+        <v>519.9473089951073</v>
       </c>
       <c r="M20" t="n">
-        <v>15.43093714715849</v>
+        <v>19.94730899510728</v>
       </c>
       <c r="N20" t="n">
-        <v>185.3638586745018</v>
+        <v>9.97864381946337</v>
       </c>
       <c r="O20" t="n">
-        <v>507.7116089094604</v>
+        <v>509.9686651756439</v>
+      </c>
+      <c r="P20" t="n">
+        <v>191.7936854196781</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>509.5958221600848</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.3728430155591127</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.1865147651621374</v>
+      </c>
+      <c r="T20" t="n">
+        <v>509.7821504104817</v>
+      </c>
+      <c r="U20" t="n">
+        <v>191.7235581142972</v>
       </c>
     </row>
     <row r="21">
@@ -1625,25 +1997,43 @@
         <v>13.598041881969</v>
       </c>
       <c r="I21" t="n">
-        <v>37.88</v>
+        <v>41.92</v>
       </c>
       <c r="J21" t="n">
-        <v>3.018765297797116</v>
+        <v>14.00598313842806</v>
       </c>
       <c r="K21" t="n">
-        <v>37.88</v>
+        <v>41.92</v>
       </c>
       <c r="L21" t="n">
-        <v>515.0938264889857</v>
+        <v>570.0299156921403</v>
       </c>
       <c r="M21" t="n">
-        <v>15.09382648898566</v>
+        <v>70.02991569214032</v>
       </c>
       <c r="N21" t="n">
-        <v>13.39871008184262</v>
+        <v>35.03247408311172</v>
       </c>
       <c r="O21" t="n">
-        <v>507.5431379001984</v>
+        <v>534.9974416090286</v>
+      </c>
+      <c r="P21" t="n">
+        <v>14.43374021410429</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>530.7286276726149</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-4.268813936413608</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-2.135474705559584</v>
+      </c>
+      <c r="T21" t="n">
+        <v>532.861966903469</v>
+      </c>
+      <c r="U21" t="n">
+        <v>14.37572174168509</v>
       </c>
     </row>
     <row r="22">
@@ -1682,25 +2072,43 @@
         <v>1.719986240110079</v>
       </c>
       <c r="I22" t="n">
-        <v>291.6</v>
+        <v>286.6</v>
       </c>
       <c r="J22" t="n">
-        <v>0.309597523219826</v>
+        <v>-1.410388716890253</v>
       </c>
       <c r="K22" t="n">
-        <v>290.7</v>
+        <v>286.6</v>
       </c>
       <c r="L22" t="n">
-        <v>500</v>
+        <v>492.9480564155487</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>500</v>
+      </c>
+      <c r="P22" t="n">
         <v>1.719986240110079</v>
       </c>
-      <c r="O22" t="n">
-        <v>500</v>
+      <c r="Q22" t="n">
+        <v>500</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>500</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.719986240110079</v>
       </c>
     </row>
     <row r="23">
@@ -1739,25 +2147,43 @@
         <v>149.7005988023952</v>
       </c>
       <c r="I23" t="n">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="J23" t="n">
-        <v>2.694610778443123</v>
+        <v>3.892215568862286</v>
       </c>
       <c r="K23" t="n">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="L23" t="n">
-        <v>513.4730538922156</v>
+        <v>519.4610778443114</v>
       </c>
       <c r="M23" t="n">
-        <v>13.4730538922156</v>
+        <v>19.46107784431138</v>
       </c>
       <c r="N23" t="n">
-        <v>147.7356142850322</v>
+        <v>9.735406625468421</v>
       </c>
       <c r="O23" t="n">
-        <v>506.7331569976605</v>
+        <v>509.7256712188429</v>
+      </c>
+      <c r="P23" t="n">
+        <v>152.5061914898501</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>509.3706795760993</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.3549916427436415</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.17758461367866</v>
+      </c>
+      <c r="T23" t="n">
+        <v>509.5480866051643</v>
+      </c>
+      <c r="U23" t="n">
+        <v>152.4530756128845</v>
       </c>
     </row>
     <row r="24">
@@ -1796,25 +2222,43 @@
         <v>104.3405676126878</v>
       </c>
       <c r="I24" t="n">
-        <v>4.991</v>
+        <v>4.746</v>
       </c>
       <c r="J24" t="n">
-        <v>4.152754590984972</v>
+        <v>-0.9599332220367148</v>
       </c>
       <c r="K24" t="n">
-        <v>4.991</v>
+        <v>4.746</v>
       </c>
       <c r="L24" t="n">
-        <v>520.7637729549249</v>
+        <v>495.2003338898164</v>
       </c>
       <c r="M24" t="n">
-        <v>20.76377295492489</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2594055174221</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>510.3766929374537</v>
+        <v>500</v>
+      </c>
+      <c r="P24" t="n">
+        <v>104.3405676126878</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>500</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>500</v>
+      </c>
+      <c r="U24" t="n">
+        <v>104.3405676126878</v>
       </c>
     </row>
     <row r="25">
@@ -1853,25 +2297,43 @@
         <v>121.654501216545</v>
       </c>
       <c r="I25" t="n">
-        <v>4.24</v>
+        <v>4.51</v>
       </c>
       <c r="J25" t="n">
-        <v>3.163017031630167</v>
+        <v>9.732360097323587</v>
       </c>
       <c r="K25" t="n">
-        <v>4.24</v>
+        <v>4.51</v>
       </c>
       <c r="L25" t="n">
-        <v>515.8150851581509</v>
+        <v>548.6618004866179</v>
       </c>
       <c r="M25" t="n">
-        <v>15.81508515815085</v>
+        <v>48.66180048661795</v>
       </c>
       <c r="N25" t="n">
-        <v>119.7885817995074</v>
+        <v>24.34307177919857</v>
       </c>
       <c r="O25" t="n">
-        <v>507.9035868299113</v>
+        <v>524.3187287074194</v>
+      </c>
+      <c r="P25" t="n">
+        <v>127.0520781077199</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>522.1840410227286</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-2.134687684690789</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-1.067877781236013</v>
+      </c>
+      <c r="T25" t="n">
+        <v>523.2508509261834</v>
+      </c>
+      <c r="U25" t="n">
+        <v>126.7925136543245</v>
       </c>
     </row>
     <row r="26">
@@ -1904,31 +2366,49 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H26" t="n">
-        <v>7.715691924152717</v>
+        <v>7.833307222309259</v>
       </c>
       <c r="I26" t="n">
-        <v>61.97</v>
+        <v>61.83</v>
       </c>
       <c r="J26" t="n">
-        <v>-2.913990286699044</v>
+        <v>-3.133322888923704</v>
       </c>
       <c r="K26" t="n">
-        <v>61.97</v>
+        <v>61.83</v>
       </c>
       <c r="L26" t="n">
-        <v>485.4300485665048</v>
+        <v>484.3333855553815</v>
       </c>
       <c r="M26" t="n">
-        <v>-14.56995143349519</v>
+        <v>-15.66661444461852</v>
       </c>
       <c r="N26" t="n">
-        <v>7.59819424129433</v>
+        <v>-7.837225835226872</v>
       </c>
       <c r="O26" t="n">
-        <v>514.288620026761</v>
+        <v>492.1627741647731</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7.706679555975899</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>491.9173560579416</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-0.2454181068314938</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-0.1227704386350644</v>
+      </c>
+      <c r="T26" t="n">
+        <v>492.040003726138</v>
+      </c>
+      <c r="U26" t="n">
+        <v>7.704758082245735</v>
       </c>
     </row>
     <row r="27">
@@ -1967,25 +2447,43 @@
         <v>8844861.135680169</v>
       </c>
       <c r="I27" t="n">
-        <v>6.327e-05</v>
+        <v>6.522e-05</v>
       </c>
       <c r="J27" t="n">
-        <v>11.92287281089686</v>
+        <v>15.37236865381213</v>
       </c>
       <c r="K27" t="n">
-        <v>6.327e-05</v>
+        <v>6.522e-05</v>
       </c>
       <c r="L27" t="n">
-        <v>559.6143640544842</v>
+        <v>576.8618432690606</v>
       </c>
       <c r="M27" t="n">
-        <v>59.61436405448421</v>
+        <v>76.86184326906061</v>
       </c>
       <c r="N27" t="n">
-        <v>8373514.635383362</v>
+        <v>38.45014670788424</v>
       </c>
       <c r="O27" t="n">
-        <v>529.7922709807052</v>
+        <v>538.4116965611763</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9434406.470054353</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>533.3269977521726</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-5.084698809003726</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-2.543621215109417</v>
+      </c>
+      <c r="T27" t="n">
+        <v>535.8680753460669</v>
+      </c>
+      <c r="U27" t="n">
+        <v>9389455.513148386</v>
       </c>
     </row>
     <row r="28">
@@ -2024,25 +2522,43 @@
         <v>3.069367710251688</v>
       </c>
       <c r="I28" t="n">
-        <v>170.9</v>
+        <v>172.9</v>
       </c>
       <c r="J28" t="n">
-        <v>4.910988336402701</v>
+        <v>6.138735420503376</v>
       </c>
       <c r="K28" t="n">
-        <v>170.9</v>
+        <v>172.9</v>
       </c>
       <c r="L28" t="n">
-        <v>524.5549416820135</v>
+        <v>530.6936771025169</v>
       </c>
       <c r="M28" t="n">
-        <v>24.55494168201346</v>
+        <v>30.69367710251686</v>
       </c>
       <c r="N28" t="n">
-        <v>2.997491685398965</v>
+        <v>15.35451580916301</v>
       </c>
       <c r="O28" t="n">
-        <v>512.271329034683</v>
+        <v>515.3391612933539</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.15817346970318</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>514.466458214648</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-0.8727030787058538</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-0.4365698242650594</v>
+      </c>
+      <c r="T28" t="n">
+        <v>514.9025914690889</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3.155496163046085</v>
       </c>
     </row>
     <row r="29">
@@ -2081,25 +2597,43 @@
         <v>93.86146048432514</v>
       </c>
       <c r="I29" t="n">
-        <v>5.318</v>
+        <v>5.26</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.1689506288717917</v>
+        <v>-1.25774357048996</v>
       </c>
       <c r="K29" t="n">
-        <v>5.327</v>
+        <v>5.26</v>
       </c>
       <c r="L29" t="n">
-        <v>500</v>
+        <v>493.7112821475502</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>500</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.86146048432514</v>
       </c>
-      <c r="O29" t="n">
-        <v>500</v>
+      <c r="Q29" t="n">
+        <v>500</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>500</v>
+      </c>
+      <c r="U29" t="n">
+        <v>93.86146048432514</v>
       </c>
     </row>
     <row r="30">
@@ -2138,25 +2672,43 @@
         <v>917431.1926605505</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000556</v>
+        <v>0.000549</v>
       </c>
       <c r="J30" t="n">
-        <v>2.0183486238532</v>
+        <v>0.7339449541284383</v>
       </c>
       <c r="K30" t="n">
-        <v>0.000556</v>
+        <v>0.000549</v>
       </c>
       <c r="L30" t="n">
-        <v>510.091743119266</v>
+        <v>503.6697247706422</v>
       </c>
       <c r="M30" t="n">
-        <v>10.09174311926603</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>908351.3441758171</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>505.0433473617543</v>
+        <v>500</v>
+      </c>
+      <c r="P30" t="n">
+        <v>917431.1926605505</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>500</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>500</v>
+      </c>
+      <c r="U30" t="n">
+        <v>917431.1926605505</v>
       </c>
     </row>
     <row r="31">
@@ -2195,25 +2747,43 @@
         <v>203.5830618892508</v>
       </c>
       <c r="I31" t="n">
-        <v>2.507</v>
+        <v>2.378</v>
       </c>
       <c r="J31" t="n">
-        <v>2.076547231270365</v>
+        <v>-3.175895765472307</v>
       </c>
       <c r="K31" t="n">
-        <v>2.507</v>
+        <v>2.378</v>
       </c>
       <c r="L31" t="n">
-        <v>510.3827361563518</v>
+        <v>484.1205211726385</v>
       </c>
       <c r="M31" t="n">
-        <v>10.38273615635183</v>
+        <v>-15.87947882736154</v>
       </c>
       <c r="N31" t="n">
-        <v>201.5112768630417</v>
+        <v>-7.943711269315426</v>
       </c>
       <c r="O31" t="n">
-        <v>505.1887710956456</v>
+        <v>492.0562887306846</v>
+      </c>
+      <c r="P31" t="n">
+        <v>200.2459014359093</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>491.8039339265932</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.2523548040913397</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.1262405223068233</v>
+      </c>
+      <c r="T31" t="n">
+        <v>491.9300482083777</v>
+      </c>
+      <c r="U31" t="n">
+        <v>200.194551972642</v>
       </c>
     </row>
   </sheetData>
